--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3184.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3184.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.175690484880661</v>
+        <v>0.9773569703102112</v>
       </c>
       <c r="B1">
-        <v>2.07414619052388</v>
+        <v>1.852310061454773</v>
       </c>
       <c r="C1">
-        <v>6.995574051865695</v>
+        <v>3.301288366317749</v>
       </c>
       <c r="D1">
-        <v>3.811828851338182</v>
+        <v>3.928803205490112</v>
       </c>
       <c r="E1">
-        <v>1.453911382264984</v>
+        <v>0.4214289784431458</v>
       </c>
     </row>
   </sheetData>
